--- a/test_preferences.xlsx
+++ b/test_preferences.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
